--- a/turnos.xlsx
+++ b/turnos.xlsx
@@ -1,189 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contraseña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turno Conseguido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.779.763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jr0z74rg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SolNaranja9</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -191,182 +179,340 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Contraseña</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Turno Conseguido</t>
+        </is>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>44.779.763</t>
+        </is>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>jr0z74rg</t>
+        </is>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>5</v>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SolNaranja9</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>